--- a/medicine/Handicap/Myopathie/Myopathie.xlsx
+++ b/medicine/Handicap/Myopathie/Myopathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les myopathies sont des maladies neuromusculaires, dont elles forment un sous-groupe. Elles se caractérisent par une fragilité des muscles, qui entraîne la déchirure des fibres musculaires à la moindre contraction. S'enclenche dès lors un cycle vicieux de blessures et de guérisons. Au fil du temps, on voit l'apparition d'une inflammation chronique qui attaque les tissus sains et contribue à détruire davantage les muscles. Elles peuvent être congénitales, héréditaires, acquises ou bien cela peut être une mutation des gènes. Les trois grands types de myopathies acquises et inflammatoires, souvent idiopathiques, sont potentiellement traitables (dermatomyosite, myosite à corps d'inclusion et autres myosites)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les myopathies sont des maladies neuromusculaires, dont elles forment un sous-groupe. Elles se caractérisent par une fragilité des muscles, qui entraîne la déchirure des fibres musculaires à la moindre contraction. S'enclenche dès lors un cycle vicieux de blessures et de guérisons. Au fil du temps, on voit l'apparition d'une inflammation chronique qui attaque les tissus sains et contribue à détruire davantage les muscles. Elles peuvent être congénitales, héréditaires, acquises ou bien cela peut être une mutation des gènes. Les trois grands types de myopathies acquises et inflammatoires, souvent idiopathiques, sont potentiellement traitables (dermatomyosite, myosite à corps d'inclusion et autres myosites).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Manifestations cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome myogène regroupe les manifestations cliniques communes des myopathies[2]. Il associe une perte de force musculaire, des douleurs (myalgies), et des anomalies de la contraction ou de la décontraction musculaire, notamment l'absence de réflexe ostéotendineux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome myogène regroupe les manifestations cliniques communes des myopathies. Il associe une perte de force musculaire, des douleurs (myalgies), et des anomalies de la contraction ou de la décontraction musculaire, notamment l'absence de réflexe ostéotendineux.
 </t>
         </is>
       </c>
@@ -542,20 +556,11 @@
           <t>Étiologie des myopathies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle n'est souvent pas réellement connue ; il s'agirait le plus souvent probablement de la mutation d'un gène ou des effets sur le muscle d'un ou plusieurs toxiques (médicament, drogue, poison ou divers produits toxiques, dont par exemple le plomb).
-Myopathies toxiques et environnementales
-Elles regroupent des myopathies, parfois aiguës, induites par des agents environnants qui sont des « toxiques musculaires » (myotoxiques). La toxicité musculaire peut être immédiate ou s’installer par de multiples mécanismes et à différentes échelles[3] ; parmi les molécules myoactives courantes (actives sur les muscles) figurent les statines, les glucocorticoïdes et l’alcool éthylique.
-Selon les cas, l'effet est une perturbation structurale et/ou fonctionnelle des muscles, durable ou réversible[3].
-Diagnostic : il est particulièrement difficile à poser étant donné la quantité d'autres pathologies pouvant mimer une myopathie toxique. L'anamnèse est donc une étape essentielle de l'établissement du diagnostic ; devant s'appuyer sur la recherche d'antécédents médicaux évocateurs et des indices d’exposition plus ou moins récentes (in utero éventuellement) à des toxiques, drogues ou médicament[4]. Le diagnostic cherche à évaluer précocement la distribution des lésions musculaires et leur sévérité, ce qui facilitera l’exploration des zones atteintes et leur traitement[4]. Après les bilans biologiques, l'électromyographie, l’imagerie médicale et la spectrométrie de résonance magnétique permettent d'orienter le diagnostic et mieux évaluer l'étendue et la gravité des lésions musculaires. La biopsie, plus invasive est moins utilisée. Certaines myopathies sont confirmées par des tests de contracture. En cas de myopathie aiguës la recherche de toxines peut conduire à mieux adapter la prise en charge du patient[4].
-Le diagnostic immunologique recherche des auto-anticorps (antirécepteur cholinergique ou anti-HMG-CoA réductase) capables de faire durer la myopathie bien après l'éviction de l'agent toxique en cause[4].
-Une susceptibilité génétique à certains xénobiotiques est possible, et peut être détectée par des moyens pharmacogénomiques (dont on espère qu'ils pourront aussi dans le futur aider à déterminer quels sont les médicaments les moins potentiellement myotoxiques pour chaque patient)[4].
-Mécanismes d’action : les médiateurs intracellulaires impliqués dans ces pathologies sont encore mal connus[3]. On espère les identifier pour améliorer l'efficacité des traitements[3]. Les mécanismes souvent cités sont des interactions des cellules du système neuromusculaire avec des macromolécules toxiques et l’induction de troubles du métabolisme cellulaire[3].
-Les molécules amphiphiles telles que la chloroquine, l'hydroxychloroquine, etc.) provoquent des lésions lysosomales particulières, source de dysfonctionnements de l'autophagie myocytaire. Des produits comme l'alcool éthylique et les statines affectent l’ensemble de la fibre musculaire en y provoquant un stress oxydant ou en déclenchant différentes voies de mort cellulaire (apoptose ou nécrose) à l’origine d’altérations extensives[3].
-Certaines formes de myopathie toxique (les plus fréquentes) sont induites par les effets pharmacologiques d'un médicaments, d'une drogue, d'un venin ou par divers autres produits toxiques (certaines myopathies mitochondriales par exemple ; un cas médiatisé étant celui du coureur cycliste Greg LeMond qui a peu à peu perdu l'usage de ses muscles après un accident de chasse pour lequel les chirurgiens n'ont pas pu ôter la totalité des grenailles de plomb qu'il avait reçu au ventre et à la poitrine, qui sont devenus source d'un saturnisme chronique et d'une myopathie induite quelques années après qu'il a été champion de stature mondiale)[5],[6].
-Des délétions d'ADN nucléaire peuvent induire une myopathie mitochondriale avec par exemple la délétion du gène OPA1.
-Les mécanismes (directs et indirects) des myopathies toxiques sont encore en cours d'exploration[3], dont en s'appuyant sur des disciplines récentes comme la pharmacogénomique[4]) existent.
 </t>
         </is>
       </c>
@@ -581,14 +586,68 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Étiologie des myopathies</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Myopathies toxiques et environnementales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles regroupent des myopathies, parfois aiguës, induites par des agents environnants qui sont des « toxiques musculaires » (myotoxiques). La toxicité musculaire peut être immédiate ou s’installer par de multiples mécanismes et à différentes échelles ; parmi les molécules myoactives courantes (actives sur les muscles) figurent les statines, les glucocorticoïdes et l’alcool éthylique.
+Selon les cas, l'effet est une perturbation structurale et/ou fonctionnelle des muscles, durable ou réversible.
+Diagnostic : il est particulièrement difficile à poser étant donné la quantité d'autres pathologies pouvant mimer une myopathie toxique. L'anamnèse est donc une étape essentielle de l'établissement du diagnostic ; devant s'appuyer sur la recherche d'antécédents médicaux évocateurs et des indices d’exposition plus ou moins récentes (in utero éventuellement) à des toxiques, drogues ou médicament. Le diagnostic cherche à évaluer précocement la distribution des lésions musculaires et leur sévérité, ce qui facilitera l’exploration des zones atteintes et leur traitement. Après les bilans biologiques, l'électromyographie, l’imagerie médicale et la spectrométrie de résonance magnétique permettent d'orienter le diagnostic et mieux évaluer l'étendue et la gravité des lésions musculaires. La biopsie, plus invasive est moins utilisée. Certaines myopathies sont confirmées par des tests de contracture. En cas de myopathie aiguës la recherche de toxines peut conduire à mieux adapter la prise en charge du patient.
+Le diagnostic immunologique recherche des auto-anticorps (antirécepteur cholinergique ou anti-HMG-CoA réductase) capables de faire durer la myopathie bien après l'éviction de l'agent toxique en cause.
+Une susceptibilité génétique à certains xénobiotiques est possible, et peut être détectée par des moyens pharmacogénomiques (dont on espère qu'ils pourront aussi dans le futur aider à déterminer quels sont les médicaments les moins potentiellement myotoxiques pour chaque patient).
+Mécanismes d’action : les médiateurs intracellulaires impliqués dans ces pathologies sont encore mal connus. On espère les identifier pour améliorer l'efficacité des traitements. Les mécanismes souvent cités sont des interactions des cellules du système neuromusculaire avec des macromolécules toxiques et l’induction de troubles du métabolisme cellulaire.
+Les molécules amphiphiles telles que la chloroquine, l'hydroxychloroquine, etc.) provoquent des lésions lysosomales particulières, source de dysfonctionnements de l'autophagie myocytaire. Des produits comme l'alcool éthylique et les statines affectent l’ensemble de la fibre musculaire en y provoquant un stress oxydant ou en déclenchant différentes voies de mort cellulaire (apoptose ou nécrose) à l’origine d’altérations extensives.
+Certaines formes de myopathie toxique (les plus fréquentes) sont induites par les effets pharmacologiques d'un médicaments, d'une drogue, d'un venin ou par divers autres produits toxiques (certaines myopathies mitochondriales par exemple ; un cas médiatisé étant celui du coureur cycliste Greg LeMond qui a peu à peu perdu l'usage de ses muscles après un accident de chasse pour lequel les chirurgiens n'ont pas pu ôter la totalité des grenailles de plomb qu'il avait reçu au ventre et à la poitrine, qui sont devenus source d'un saturnisme chronique et d'une myopathie induite quelques années après qu'il a été champion de stature mondiale),.
+Des délétions d'ADN nucléaire peuvent induire une myopathie mitochondriale avec par exemple la délétion du gène OPA1.
+Les mécanismes (directs et indirects) des myopathies toxiques sont encore en cours d'exploration, dont en s'appuyant sur des disciplines récentes comme la pharmacogénomique) existent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Myopathie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myopathie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Typologie des myopathies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Myopathie primitive
-Dystrophies musculaires
-Liée à l'X
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Myopathie primitive</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Dystrophies musculaires</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liée à l'X
 Dystrophie musculaire de Duchenne (maladie génétique causée par une mutation du gène de la dystrophine, aboutissant à la synthèse d'une protéine tronquée)
 Dystrophie musculaire de Becker
 Porteuse symptomatique de la dystrophie musculaire de Duchenne
@@ -641,9 +700,47 @@
 Ophtalmoplégie congénitale type 2
 Syndrome Muscle-Eye-Brain
 Syndrome de Walker-Warburg
-Dystrophie musculaire d’Émery-Dreifuss type 3
-Myopathies congénitales avec anomalies structurelles
-Liée à l'X[7]
+Dystrophie musculaire d’Émery-Dreifuss type 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Myopathie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myopathie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Typologie des myopathies</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Myopathie primitive</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Myopathies congénitales avec anomalies structurelles</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liée à l'X
 Myopathie congénitale myotubulaire
 Myopathies à empreintes digitales
 À transmission dominante
@@ -659,16 +756,93 @@
 Myopathie congénitale à multi-minicores et ophtalmoplégie externe
 Myopathie sarcotubulaire
 Myopathie avec retard mental, petite taille et défaut endocrinien (syndrome de Chudley)
-Dystrophie musculaire des ceintures type 2N (ou R14) avec déficit en POMT2[8],[9]
+Dystrophie musculaire des ceintures type 2N (ou R14) avec déficit en POMT2,
 Multiple
-Myopathie congénitale avec disproportion des types de fibres musculaires[10]
+Myopathie congénitale avec disproportion des types de fibres musculaires
 Inconnu
-Myopathie à corps réducteurs[11]
-Myopathie à corps zébrés[12]
-Myopathies inflammatoires acquises
-Myotonie : Décontraction musculaire retardée.
-Maladies des canaux ioniques
-À transmission dominante
+Myopathie à corps réducteurs
+Myopathie à corps zébrés</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Myopathie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myopathie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Typologie des myopathies</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Myopathie primitive</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Myopathies inflammatoires acquises</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Myotonie : Décontraction musculaire retardée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Myopathie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myopathie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Typologie des myopathies</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Myopathie primitive</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Maladies des canaux ioniques</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>À transmission dominante
 Myotonie congénitale de Thomsen
 Paralysie périodique hyperkaliémique (Maladie de Gamstorp)
 Paralysie périodique hypokaliémique
@@ -676,10 +850,43 @@
 Paralysie périodique normokaliémique
 Paramyotonie congénitale (de Von Eulenburg)
 À transmission récessive
-Myotonie congénitale de Becker
-Myopathie métabolique
-Myopathie secondaire
-amyotrophie spinale progressive
+Myotonie congénitale de Becker</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Myopathie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myopathie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Typologie des myopathies</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Myopathie secondaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">amyotrophie spinale progressive
 </t>
         </is>
       </c>
